--- a/StructureDefinition-ST.xlsx
+++ b/StructureDefinition-ST.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-10-10T20:10:57+00:00</t>
+    <t>2022-10-10T20:11:06+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ST.xlsx
+++ b/StructureDefinition-ST.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-10-10T20:11:06+00:00</t>
+    <t>2022-10-10T20:11:29+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ST.xlsx
+++ b/StructureDefinition-ST.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-10-21T23:00:19+00:00</t>
+    <t>2022-10-21T23:01:56+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ST.xlsx
+++ b/StructureDefinition-ST.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-10-21T23:01:56+00:00</t>
+    <t>2022-10-21T23:10:36+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ST.xlsx
+++ b/StructureDefinition-ST.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-10-21T23:10:36+00:00</t>
+    <t>2022-10-21T23:24:13+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ST.xlsx
+++ b/StructureDefinition-ST.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-10-21T23:24:13+00:00</t>
+    <t>2022-10-23T08:50:48+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ST.xlsx
+++ b/StructureDefinition-ST.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-10-23T08:50:48+00:00</t>
+    <t>2022-10-23T08:58:51+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ST.xlsx
+++ b/StructureDefinition-ST.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-10-23T08:58:51+00:00</t>
+    <t>2022-10-23T16:03:39+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ST.xlsx
+++ b/StructureDefinition-ST.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-10-23T16:03:39+00:00</t>
+    <t>2022-10-23T18:15:07+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ST.xlsx
+++ b/StructureDefinition-ST.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-10-23T18:15:07+00:00</t>
+    <t>2022-10-23T19:27:30+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -234,7 +234,7 @@
     <t>*</t>
   </si>
   <si>
-    <t xml:space="preserve"> text </t>
+    <t>text</t>
   </si>
   <si>
     <t xml:space="preserve">ele-1

--- a/StructureDefinition-ST.xlsx
+++ b/StructureDefinition-ST.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-10-23T19:27:30+00:00</t>
+    <t>2022-10-23T19:35:12+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ST.xlsx
+++ b/StructureDefinition-ST.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-10-23T19:35:12+00:00</t>
+    <t>2022-10-23T20:13:34+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ST.xlsx
+++ b/StructureDefinition-ST.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-10-23T20:13:34+00:00</t>
+    <t>2022-10-25T12:14:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ST.xlsx
+++ b/StructureDefinition-ST.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-10-25T12:14:01+00:00</t>
+    <t>2022-10-25T13:47:24+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ST.xlsx
+++ b/StructureDefinition-ST.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-10-25T13:47:24+00:00</t>
+    <t>2022-10-30T17:01:43+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ST.xlsx
+++ b/StructureDefinition-ST.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-10-30T17:01:43+00:00</t>
+    <t>2022-10-30T18:15:34+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ST.xlsx
+++ b/StructureDefinition-ST.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-10-30T18:15:34+00:00</t>
+    <t>2022-10-30T20:04:00+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ST.xlsx
+++ b/StructureDefinition-ST.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-10-30T20:04:00+00:00</t>
+    <t>2022-10-30T21:50:47+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ST.xlsx
+++ b/StructureDefinition-ST.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-10-30T21:50:47+00:00</t>
+    <t>2022-10-30T22:04:36+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ST.xlsx
+++ b/StructureDefinition-ST.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-10-30T22:04:36+00:00</t>
+    <t>2022-10-30T22:13:17+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ST.xlsx
+++ b/StructureDefinition-ST.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-10-30T22:13:17+00:00</t>
+    <t>2022-11-02T06:16:24+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ST.xlsx
+++ b/StructureDefinition-ST.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-02T06:16:24+00:00</t>
+    <t>2022-11-02T20:48:31+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ST.xlsx
+++ b/StructureDefinition-ST.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-02T20:48:31+00:00</t>
+    <t>2022-11-03T14:07:58+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ST.xlsx
+++ b/StructureDefinition-ST.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-05T15:30:00+00:00</t>
+    <t>2022-11-05T15:35:25+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ST.xlsx
+++ b/StructureDefinition-ST.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-05T15:35:25+00:00</t>
+    <t>2022-11-06T17:03:22+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ST.xlsx
+++ b/StructureDefinition-ST.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-06T17:03:22+00:00</t>
+    <t>2022-11-06T21:19:48+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ST.xlsx
+++ b/StructureDefinition-ST.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-06T21:19:48+00:00</t>
+    <t>2022-11-06T22:26:11+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ST.xlsx
+++ b/StructureDefinition-ST.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-07T21:05:10+00:00</t>
+    <t>2022-11-07T21:23:46+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ST.xlsx
+++ b/StructureDefinition-ST.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-07T21:23:46+00:00</t>
+    <t>2022-11-07T21:31:45+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ST.xlsx
+++ b/StructureDefinition-ST.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-07T21:31:45+00:00</t>
+    <t>2022-11-08T20:50:12+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ST.xlsx
+++ b/StructureDefinition-ST.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-11T12:45:51+00:00</t>
+    <t>2022-11-11T12:48:43+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ST.xlsx
+++ b/StructureDefinition-ST.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-11T12:48:43+00:00</t>
+    <t>2022-11-11T13:10:08+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ST.xlsx
+++ b/StructureDefinition-ST.xlsx
@@ -24,7 +24,7 @@
     <t>URL</t>
   </si>
   <si>
-    <t>http://unicom-project.eu/fhir/StructureDefinition/ST</t>
+    <t>https://hl7-eu.github.io/unicom-ig/branches/mpd-r5/StructureDefinition/ST</t>
   </si>
   <si>
     <t>Version</t>
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-11T13:10:08+00:00</t>
+    <t>2022-11-11T15:50:31+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -84,7 +84,7 @@
     <t>FHIR Version</t>
   </si>
   <si>
-    <t>4.3.0</t>
+    <t>5.0.0-ballot</t>
   </si>
   <si>
     <t>Kind</t>

--- a/StructureDefinition-ST.xlsx
+++ b/StructureDefinition-ST.xlsx
@@ -24,7 +24,7 @@
     <t>URL</t>
   </si>
   <si>
-    <t>https://hl7-eu.github.io/unicom-ig/branches/mpd-r5/StructureDefinition/ST</t>
+    <t>http://unicom-project.eu/fhir/StructureDefinition/ST</t>
   </si>
   <si>
     <t>Version</t>
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-11T20:48:35+00:00</t>
+    <t>2022-11-12T19:50:48+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -84,7 +84,7 @@
     <t>FHIR Version</t>
   </si>
   <si>
-    <t>5.0.0-ballot</t>
+    <t>4.3.0</t>
   </si>
   <si>
     <t>Kind</t>

--- a/StructureDefinition-ST.xlsx
+++ b/StructureDefinition-ST.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-12T19:50:48+00:00</t>
+    <t>2022-11-12T20:00:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ST.xlsx
+++ b/StructureDefinition-ST.xlsx
@@ -24,7 +24,7 @@
     <t>URL</t>
   </si>
   <si>
-    <t>http://unicom-project.eu/fhir/StructureDefinition/ST</t>
+    <t>https://hl7-eu.github.io/unicom-ig/branches/mpd-r5/StructureDefinition/ST</t>
   </si>
   <si>
     <t>Version</t>
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-12T20:00:33+00:00</t>
+    <t>2022-11-14T19:25:53+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -84,7 +84,7 @@
     <t>FHIR Version</t>
   </si>
   <si>
-    <t>4.3.0</t>
+    <t>5.0.0-ballot</t>
   </si>
   <si>
     <t>Kind</t>

--- a/StructureDefinition-ST.xlsx
+++ b/StructureDefinition-ST.xlsx
@@ -24,7 +24,7 @@
     <t>URL</t>
   </si>
   <si>
-    <t>https://hl7-eu.github.io/unicom-ig/branches/mpd-r5/StructureDefinition/ST</t>
+    <t>http://unicom-project.eu/fhir/StructureDefinition/ST</t>
   </si>
   <si>
     <t>Version</t>
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-14T19:25:53+00:00</t>
+    <t>2022-11-16T21:11:51+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -84,7 +84,7 @@
     <t>FHIR Version</t>
   </si>
   <si>
-    <t>5.0.0-ballot</t>
+    <t>4.3.0</t>
   </si>
   <si>
     <t>Kind</t>

--- a/StructureDefinition-ST.xlsx
+++ b/StructureDefinition-ST.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-16T21:11:51+00:00</t>
+    <t>2022-11-16T21:23:11+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ST.xlsx
+++ b/StructureDefinition-ST.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-16T21:23:11+00:00</t>
+    <t>2022-11-17T06:36:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ST.xlsx
+++ b/StructureDefinition-ST.xlsx
@@ -24,7 +24,7 @@
     <t>URL</t>
   </si>
   <si>
-    <t>http://unicom-project.eu/fhir/StructureDefinition/ST</t>
+    <t>https://hl7-eu.github.io/unicom-ig/branches/mpd-r5/StructureDefinition/ST</t>
   </si>
   <si>
     <t>Version</t>
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-17T06:36:33+00:00</t>
+    <t>2022-11-17T17:44:56+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -84,7 +84,7 @@
     <t>FHIR Version</t>
   </si>
   <si>
-    <t>4.3.0</t>
+    <t>5.0.0-ballot</t>
   </si>
   <si>
     <t>Kind</t>

--- a/StructureDefinition-ST.xlsx
+++ b/StructureDefinition-ST.xlsx
@@ -24,7 +24,7 @@
     <t>URL</t>
   </si>
   <si>
-    <t>https://hl7-eu.github.io/unicom-ig/branches/mpd-r5/StructureDefinition/ST</t>
+    <t>http://unicom-project.eu/fhir/StructureDefinition/ST</t>
   </si>
   <si>
     <t>Version</t>
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-17T17:44:56+00:00</t>
+    <t>2022-11-18T19:44:59+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -84,7 +84,7 @@
     <t>FHIR Version</t>
   </si>
   <si>
-    <t>5.0.0-ballot</t>
+    <t>4.3.0</t>
   </si>
   <si>
     <t>Kind</t>

--- a/StructureDefinition-ST.xlsx
+++ b/StructureDefinition-ST.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-18T19:44:59+00:00</t>
+    <t>2022-11-18T19:50:12+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ST.xlsx
+++ b/StructureDefinition-ST.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-18T19:50:12+00:00</t>
+    <t>2022-11-18T19:51:53+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ST.xlsx
+++ b/StructureDefinition-ST.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-18T19:51:53+00:00</t>
+    <t>2022-11-18T19:52:09+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ST.xlsx
+++ b/StructureDefinition-ST.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-18T19:52:09+00:00</t>
+    <t>2022-11-18T19:57:45+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ST.xlsx
+++ b/StructureDefinition-ST.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-18T19:57:45+00:00</t>
+    <t>2022-11-19T06:10:15+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ST.xlsx
+++ b/StructureDefinition-ST.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-19T22:26:15+00:00</t>
+    <t>2022-11-19T22:53:07+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ST.xlsx
+++ b/StructureDefinition-ST.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-19T22:53:07+00:00</t>
+    <t>2022-11-20T07:00:59+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ST.xlsx
+++ b/StructureDefinition-ST.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-20T07:00:59+00:00</t>
+    <t>2022-11-20T07:03:41+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ST.xlsx
+++ b/StructureDefinition-ST.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-20T07:03:41+00:00</t>
+    <t>2022-11-20T09:28:17+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ST.xlsx
+++ b/StructureDefinition-ST.xlsx
@@ -24,7 +24,7 @@
     <t>URL</t>
   </si>
   <si>
-    <t>http://unicom-project.eu/fhir/StructureDefinition/ST</t>
+    <t>http://hl7-eu.github.io/unicom-ig/StructureDefinition/ST</t>
   </si>
   <si>
     <t>Version</t>
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-20T09:28:17+00:00</t>
+    <t>2022-11-20T13:37:56+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ST.xlsx
+++ b/StructureDefinition-ST.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-20T13:37:56+00:00</t>
+    <t>2022-11-20T14:32:03+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ST.xlsx
+++ b/StructureDefinition-ST.xlsx
@@ -24,7 +24,7 @@
     <t>URL</t>
   </si>
   <si>
-    <t>http://hl7-eu.github.io/unicom-ig/StructureDefinition/ST</t>
+    <t>http://unicom-project.eu/fhir/StructureDefinition/ST</t>
   </si>
   <si>
     <t>Version</t>
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-20T14:32:03+00:00</t>
+    <t>2022-11-20T17:12:02+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ST.xlsx
+++ b/StructureDefinition-ST.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-20T17:12:02+00:00</t>
+    <t>2022-11-20T17:48:06+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ST.xlsx
+++ b/StructureDefinition-ST.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-20T17:48:06+00:00</t>
+    <t>2022-11-20T20:12:04+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ST.xlsx
+++ b/StructureDefinition-ST.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-20T20:12:04+00:00</t>
+    <t>2022-11-20T20:23:35+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ST.xlsx
+++ b/StructureDefinition-ST.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-20T20:23:35+00:00</t>
+    <t>2022-11-21T10:47:26+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ST.xlsx
+++ b/StructureDefinition-ST.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-21T10:47:26+00:00</t>
+    <t>2022-11-22T13:07:41+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ST.xlsx
+++ b/StructureDefinition-ST.xlsx
@@ -24,7 +24,7 @@
     <t>URL</t>
   </si>
   <si>
-    <t>http://unicom-project.eu/fhir/StructureDefinition/ST</t>
+    <t>http://hl7-eu.github.io/unicom-ig/StructureDefinition/ST</t>
   </si>
   <si>
     <t>Version</t>
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-22T13:07:41+00:00</t>
+    <t>2022-11-22T13:49:32+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ST.xlsx
+++ b/StructureDefinition-ST.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-22T13:49:32+00:00</t>
+    <t>2022-11-22T14:02:44+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ST.xlsx
+++ b/StructureDefinition-ST.xlsx
@@ -24,7 +24,7 @@
     <t>URL</t>
   </si>
   <si>
-    <t>http://hl7-eu.github.io/unicom-ig/StructureDefinition/ST</t>
+    <t>http://unicom-project.eu/fhir/StructureDefinition/ST</t>
   </si>
   <si>
     <t>Version</t>
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-22T14:02:44+00:00</t>
+    <t>2022-11-22T20:42:27+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ST.xlsx
+++ b/StructureDefinition-ST.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-22T20:42:27+00:00</t>
+    <t>2022-11-24T22:13:14+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ST.xlsx
+++ b/StructureDefinition-ST.xlsx
@@ -24,7 +24,7 @@
     <t>URL</t>
   </si>
   <si>
-    <t>http://unicom-project.eu/fhir/StructureDefinition/ST</t>
+    <t>http://hl7-eu.github.io/unicom-ig/StructureDefinition/ST</t>
   </si>
   <si>
     <t>Version</t>
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-24T22:13:14+00:00</t>
+    <t>2022-11-25T11:25:38+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ST.xlsx
+++ b/StructureDefinition-ST.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-25T11:25:38+00:00</t>
+    <t>2022-11-25T11:48:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ST.xlsx
+++ b/StructureDefinition-ST.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-25T22:48:13+00:00</t>
+    <t>2022-11-25T22:49:32+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
